--- a/data/trans_camb/P43B_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P43B_R-Dificultad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.720435124938723</v>
+        <v>-2.113898410823899</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.010096480449646</v>
+        <v>-3.672690000458476</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.663193338215628</v>
+        <v>4.165427074281249</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.570222714453634</v>
+        <v>3.87278831793594</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01856922708927526</v>
+        <v>-0.02274192814449465</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04240612904739166</v>
+        <v>-0.03954250137548677</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0512343554913961</v>
+        <v>0.04649400468640297</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03953412772883274</v>
+        <v>0.04285191634684635</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>5.75513579863488</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.401636028080304</v>
+        <v>6.401636028080315</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.04612675389767</v>
+        <v>1.183283987652803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.0254379295913</v>
+        <v>1.963107336211955</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.45283840709129</v>
+        <v>10.3290445688208</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.61879985700162</v>
+        <v>10.86105568948089</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.06865083931301615</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.07636269615191357</v>
+        <v>0.07636269615191371</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01197854268228476</v>
+        <v>0.01415930869944376</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02295073732848622</v>
+        <v>0.02242543076180476</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1290890433772509</v>
+        <v>0.1276084990448088</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1306431504535785</v>
+        <v>0.1345232246916014</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.795322276658175</v>
+        <v>-5.918469501475129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.681864800477175</v>
+        <v>-10.07474156543423</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.456875499829475</v>
+        <v>4.809246150497599</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3775761937282905</v>
+        <v>-0.5248710028891118</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06614362889393133</v>
+        <v>-0.06608904534789667</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1101964421697056</v>
+        <v>-0.1135125051466594</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05412212423702421</v>
+        <v>0.05806978948601486</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.003793500421380641</v>
+        <v>-0.00649341340776073</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-0.6682422952083544</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-6.779734902661483</v>
+        <v>-6.779734902661493</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.435488938943539</v>
+        <v>-9.515315154970585</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.64277902070873</v>
+        <v>-14.04231210676014</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.687520371792251</v>
+        <v>8.787477517736136</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8139895840950234</v>
+        <v>0.8996891293029003</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.008970314079463748</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.09100943159159638</v>
+        <v>-0.09100943159159654</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.119166410480883</v>
+        <v>-0.1200752503581862</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1833291727236463</v>
+        <v>-0.1768667556117369</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1265105097047099</v>
+        <v>0.1229848900787353</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01146841742875916</v>
+        <v>0.01084172533689094</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>2.086663873921213</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-4.124755877585063</v>
+        <v>-4.124755877585073</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5086362715186153</v>
+        <v>-0.4595305860860159</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.410491729426444</v>
+        <v>-6.945222766945783</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.441921290802847</v>
+        <v>4.650712866918247</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.472171826334908</v>
+        <v>-1.678070745774158</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.02437777313879528</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.048188097897974</v>
+        <v>-0.04818809789797412</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.005665651882674998</v>
+        <v>-0.005280989788291037</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07399396705158247</v>
+        <v>-0.07950076375336491</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05277722438901337</v>
+        <v>0.05572958564717027</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.01759781739756439</v>
+        <v>-0.01965655472269376</v>
       </c>
     </row>
     <row r="34">
